--- a/data/hotels_by_city/Dallas/Dallas_shard_611.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_611.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="952">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Peter L</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Melanie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r562787751-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Generally, I was very satisfied with my stay in Quality Inn.I had a big room, divided in a part designed as a living room and  a sleeping room part. The bed was very comfortable.and I really enjoyed the time, I spent in my room.There was good water pressure in the shower.There was good WIFI.Everything was clean.Things, quality Inn could improve on:The breakfast. The breakfast is really not good. Permanent issues with the waffle iron and the warm part of the breafast is just bad. In quality Inn, I have eaten the worst eggs, I ever ate.There´s a very offensive odour in the hotel. It smells very strongly like cleaning products in a negative way.My checkin was pretty exhausting. I have arrived after a long distance trip of 15 hours. All I wanted was to get in my room but the employee at the front desk was stuck in a private conversation with a colleague on the phone.More</t>
   </si>
   <si>
+    <t>Ariz0naFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r555038753-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Front desk staff very unfriendly, no sense of customer service: Check in took 10 minutes, no big deal. Stayed for 2 nights. The room was never made up after the first night (check the attached pics). On the second evening, at 8:30PM somebody opened my door with a key, trying to get in. Luckily I had locked from the inside. I called the front desk to let them know that they made a mistake. There was no apology, no acknowledgement of a mistake. At 12:35AM the same thing happened again!! Besides that, the carpets are sticky and gross. The heater unit is very noisy. There is no thermostat, so you have to figure out what setting might work for you through the night.This place also advertises its workout room. I checked it out. The light did not work, and the weight bench felt sticky. I can just imagine that this place had not been cleaned or maintained for a while. And lastly for a healthy eater, there are apples and if you're lucky a banana. All else is fatty, cholesterol-laden junk food. I travel a lot for business, and tried to save my company some money, but here you don't even get what you pay for. I will never be back, and will advise my co-workers to stay away from this place. There are lots of other options in the immediate vicinity.More</t>
   </si>
   <si>
+    <t>kmtx02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r546883036-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>IntrepidFromDC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r545855613-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>The hotel offers free, timely shuttles to and from DFW Airport.  The hotel is modern, updated, clean and has all the typical offerings at newish Quality Inn's (e.g., complimentary fruit-infused water in the lobby).  Service was friendly and showed evidence of a solid training program, but not refined (ok by me).  Food at the free breakfast was somewhat disappointing in quality (as has been my Choice free breakfast experience 100% of the time) but the lousy bacon and sausage patties can be avoided and choose a banana.  Daily room service was very good, no less than you'd get at a more expensive hotel.  Bed quality was good - not great.  TV had a very good selection of channels.  Being so close to the airport you might expect noise, but it was minimal and never waked me.  Top tier hotel among this brand based on my experience.More</t>
   </si>
   <si>
+    <t>TheStolleFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r539399709-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>b l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r499530211-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>LJTrue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r490108140-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r488416763-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t xml:space="preserve">Awesome place to stay. Clean and uncluttered. The staff were great. Airport shuttle was a great perk. Loved this place and would definitely recommend.  Price was better than much lesser places to stay. </t>
   </si>
   <si>
+    <t>Virgil O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r477143951-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Adele M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r475872690-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
   </si>
   <si>
     <t>I found a good deal on an overnight at this hotel. One of the things that was so appealing was the ad for free parking and free shuttle. I was driving in from Shreveport and he had to have a place to park my car for an out-of-town vacation. The room was clean and appeared to be recently remodeled. They offered a bfast Buffett that I couldn't try due to leaving early. The only downside was the advertisement for free parking was not accurate you actually have to go through a third-party company to pay for long-term parking at the hotel which was not explained to  me at check-in. So I was worried about my car being towed and luckily the new front desk person could accommodate me over the phone. More</t>
+  </si>
+  <si>
+    <t>Jake H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r466406124-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -416,6 +452,9 @@
 In conclusion, if you’re looking for a...My friends and I had an experience at the Comfort Inn to say the least (the Comfort Inn is 1.5 miles away from the airport). We started our experience by waiting for a shuttle that was “15 to 20 minutes away” for wait for it… AN HOUR. After about 30 minutes of waiting I decided to call and ask if the shuttle was on its way and the front desk just said that the driver was “taking a minute”. After ending that call more confused than I had previously been, we waited another 20. This time one of my friends decided to call and express our dissatisfaction with the shuttle service. That call ended with the front desk woman saying it would be another 10 to 15 minutes and when my friend asked why she said “sorry” and hung up. At this point we called an Uber and got to the hotel in about 6 minutes. 6. Minutes. As we were checking in I made sure to bring up that we should be on the 6 AM shuttle for the next morning since I had made a reservation the day before. WELL, to no avail, we weren’t on the shuttle and couldn’t be placed on it because it is too small to fit us. Due to this “miscommunication”, we had to get another Uber the next morning to take us to the airport. In conclusion, if you’re looking for a hotel that has really unreliable shuttle service, horrendous concierge workers, and pee on the walls, then this my friend is the place for you.More</t>
   </si>
   <si>
+    <t>StanRS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r448345776-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -431,6 +470,9 @@
     <t>We stayed for six nights over Christmas and had a very nice room, comfortable bed and excellent service.  All staff from front desk to housekeeping to breakfast were friendly and efficient.  The hotel was quiet, however there were overflights going into DFW.  We would definitely stay again.</t>
   </si>
   <si>
+    <t>planestrainsandaut2s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r447024558-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -449,6 +491,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>saulsnatsky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r434843194-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -464,6 +509,9 @@
     <t>The shuttle picked us up at the airport and also took us to a rental car nearby--great idea to get away from expensive AP car rentals.  Also took and  PU us and friends to nearby restaurant--all good features.  Inside is nice but seems to need some  "help" here and there.  The elevator failed for a day and we were on 2nd floor (top).  Go ahead and book here, but make it a one-night stand after you get off the plane.</t>
   </si>
   <si>
+    <t>bowwow21944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r423436150-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -491,6 +539,9 @@
     <t>Just one hour after I checked in this hotel, I got a phone call transferred by front desk. It was someone who claimed to be the hotel manager and wanted to get my info including credit card information due to computer system down. After I declined to give out my credit card info, he hung up rudely. I called front desk right away, complaining that they shouldn't transfer the call to my room for privacy protection. The only response I got from hotel is " we are sorry". No other actions taken.This hotel played loud music up to very late night everyday. This morning at 3:30 am I was awakened by the loud music again. I called front desk to complain at 4:30 am. The response I got was that they will inform the manager to inform employees not to play loud music overnight. What did I get in return after this call? Even louder music!This hotel only has one driver for shuttle bus service. We have to wait more than 30 min to over one hour everyday for the shuttle bus service to take us to and forth between hotel and office. And it is only a 7min short drive for our daily trip. Very frustrating and disappointing transportation service.This is the worst hotel experience I have ever had in recent years. I will never recommend this hotel to Anyone I know!More</t>
   </si>
   <si>
+    <t>glw66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r422617574-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -509,6 +560,9 @@
     <t>This is an ok hotel to stay in if it is one or two nights.  I stayed here for 2 nights and probably would find something else.  The staff is nice but the rooms are older.  My particular room was dark &amp; yellow - prob due to the lack of updating the lampshades.  The plugs on the lamps didn't work either and the wifi was spotty.  The breakfast was your basic breakfast at a Comfort Inn.  I stayed not the first floor by the outside door.  On these doors (not the main lobby door) one usually has to have your room key to enter for security purposes.  This door was never locked.  We got in about 1:30am from a football game and went right in.  The beds were comfortable but the last night I found spots (not sure what it was) on my comforter - that prob was the deal breaker.More</t>
   </si>
   <si>
+    <t>Brittberry09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r415949840-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -527,6 +581,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Audrasmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r396956275-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -545,6 +602,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Rae B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r387320262-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -563,6 +623,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Andrew C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r385700312-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -581,6 +644,9 @@
     <t>I have stayed in this hotel before and have had wonderful experiences. The staff and service was fantastic, above the call of doing the right thing. Evan, TJ and Tom went out of their way to assist me due to their computer issues. The problem I have is with the other front desk person, Jennifer. Very not customer friendly. She would not look me in the eye, discuss things with me and I felt completely put off when I needed to speak to her. She blew me off.  My room was fantastic. My bed was comfortable and I always had a good nights sleep. The king suites are roomy and comfortable but have no desk to work on!  Overall a good place I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>eaglezip17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r380409595-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -596,6 +662,9 @@
     <t xml:space="preserve">Arrived late in the evening; no issue with check in; was offered waterbottles and yogurts since we would be missing the morning breakfast. Also Right next door to a whataburger which is open 24hrs Had no major issues or complaints with the roomGreat for parking before the flight with a shuttle that take you and picks upWould stay again; price is right </t>
   </si>
   <si>
+    <t>tim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r380381936-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -608,6 +677,9 @@
     <t>very nice...after we moved from a terrible hotel they were very understanding,,,,quiet clean rooms   with nice pool and breakfast  will stay there again.......  highly recommend ....easy access to ball park and 6 flags</t>
   </si>
   <si>
+    <t>fubarge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r377595718-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -626,6 +698,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>MzGwina T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r364846782-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -644,6 +719,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Hniki234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r360373475-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -662,6 +740,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Tracy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r357264154-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -677,6 +758,9 @@
     <t>Comfortable bed and large room. 10 minutes to drop off the rental car. Lots of airplanes landing but the TV covered it up. A/C is loud which helps with the airplane noise. Right beside a Whataburger and Gas station which had beer and wine cheep. Only stayed from 6pm to 4am but if you need a shuttle to airport, make sure your flight is not early in the morning. Shuttles start at 6am.</t>
   </si>
   <si>
+    <t>Corey U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r350941077-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -698,6 +782,9 @@
     <t>We were on the airplane all night and arrived at the hotel very early.  Hotel clerk very politely advised she would have to charge us if we wanted to check in early.  I can appreciate this.  However what was frustrating is that when we were trying to choose hotels we called around and specifically asked if they had free weights or dumbells.  We got put on hold and then was advised that the hotel did indeed have them.  Well they did not so huge letdown.  How can one make that mistake?  Then finally went to sleep in a comfy bed only to be woken up at 5:30 AM for a wake up call I never ordered.  So I went down to the desk to advise them of it and they apologized.  Was about to then go into the pool after asking where towels were and the clerk advised me it was closed.  I actually went poolside as gates were not locked and no closed sign was to be seen.  I suggested that they need a sign to advise other guests pool was closed (Which was seen the next day).  So the next day came and guess what?  Bright and early ANOTHER wake up call at 5:30.  Needless to say NOT happy.  I have no complaints about room or breakfast.  Just would have like something to make up for the 4 misunderstandings in 2 days.  Thanks.More</t>
   </si>
   <si>
+    <t>jimingersoll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r349756158-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -713,6 +800,9 @@
     <t>I will stay here again.Why not?  Great staff, clean room, good breakfast.I ended up here because the neighboring Hilton Garden Inn was sold out.  Next trip I will likely check with this hotel first and stay again, skipping the Hilton.Nice pool also, easy access to the airport.Jim</t>
   </si>
   <si>
+    <t>Suzana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r345397107-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -737,6 +827,9 @@
     <t>I booked a room for arrival on Feb 5 for one night, once I received my confirmation from choice it showed I accidentally duplicated my reservation , so I called to cancel and they cancelled both rooms, leaving me with no rooms. So I got online and booked a room with my choice points for the night and received my confirmation everything looked good to go, but I decided to call the hotel to make sure my husband checking in under my name wouldn't be a problem, and they assured it wouldn't. I called a few more times to just get my cc auth in order to make sure they don't take my husbands credit card and what not. Night of the 5th around midnight my husband and my father in law show up at the hotel to check in (they just got out of the spurs game) and the clerks tells them there is no room, the room was "cancelled" as her exact words.. and  "the system cancelled it" I work for a Choice hotel and the system doesn't magically cancel your reservation. They let my husband check in and all and say they will figure out what happened in the morning.. ok no problem. So when my husband came downstairs to check out they asked for a credit card to charge him (even though I called 6 times making sure , NO ONE WILL BE CHARGED ) because...I booked a room for arrival on Feb 5 for one night, once I received my confirmation from choice it showed I accidentally duplicated my reservation , so I called to cancel and they cancelled both rooms, leaving me with no rooms. So I got online and booked a room with my choice points for the night and received my confirmation everything looked good to go, but I decided to call the hotel to make sure my husband checking in under my name wouldn't be a problem, and they assured it wouldn't. I called a few more times to just get my cc auth in order to make sure they don't take my husbands credit card and what not. Night of the 5th around midnight my husband and my father in law show up at the hotel to check in (they just got out of the spurs game) and the clerks tells them there is no room, the room was "cancelled" as her exact words.. and  "the system cancelled it" I work for a Choice hotel and the system doesn't magically cancel your reservation. They let my husband check in and all and say they will figure out what happened in the morning.. ok no problem. So when my husband came downstairs to check out they asked for a credit card to charge him (even though I called 6 times making sure , NO ONE WILL BE CHARGED ) because I PAID WITH MY POINTS... and was assured he wouldn't ....but guess what ..he did get charged. I called the manager to get this all figured out and fix my husbands charges on his card and figure out what happened with my points.. The manager was nice and got the charges dropped and will be fixing the issue ...with whatever happened...I will say though, if you're someone who cares more about good service than a nice bed to lay in...I WOULD NOT GO HERE.. the customer service is the worst I've ever experienced. When speaking with the clerks on the phone you don't even get a "Is there anything else I can do for you?" instead they give you a yes or no to your question and just hung up on you. I'm pretty disappointed in my choice of hotel...I will make sure I don't make the same mistake again.More</t>
   </si>
   <si>
+    <t>Millet-Fanger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r339999281-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -764,6 +857,9 @@
     <t>No thanks to DFW airport, I managed to hail down a hotel shuttle to Comfort Inn South. For an airport hotel, it was a pleasant surprise. 5 min drive, large room for under $80, both check in and check out staff very helpful and pleasant.They have a shuttle that runs every 1/2 hr between 5am and midnight (make sure you register for it at peak times). Although fairly close to the airport, I didn't hear any noise. There is a burger joint and a convenience store adjacent to the hotel carpark. My room had a king size and double bed, large flat screen TV, couch, chair and table. Only negative was the wash basin was outside the bathroom / shower.For a short, unplanned stopover, I will be using this hotel again.More</t>
   </si>
   <si>
+    <t>Cindy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r338000701-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -785,6 +881,9 @@
     <t>We often stay at this location coming or going from DFW Airport. On this trip, both the evening and morning desk clerks were very professional. The woman who ran the breakfast lounge kept the food replenished and hot and everything in the area was spotless. The spread included eggs and terrific biscuits along with fresh fruit. The housekeeping staff needs some scheduling help. They ran the vacuum cleaner in the lobby/breakfast area at 9 AM and guests have to share the elevator with housekeeping...we got left in the lobby when we stepped aside to let the cart pass. She took our elevator. Otherwise, for the price this is a no brainer.More</t>
   </si>
   <si>
+    <t>Danny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r337824533-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -806,6 +905,9 @@
     <t>Long story short after 45 minuets of trying to check in we canceled &amp; went to another Choice Hotel for 1/2 the price.I spend at least 60 nights in a hotel every year &amp; have never done this before.There was one person working at 3:00 in the afternoon.The management obviously cares little about guest.I will say the one person working was doing her best but was overwhelmed.More</t>
   </si>
   <si>
+    <t>Brent M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r328425716-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -824,6 +926,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Don A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r327911705-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -839,6 +944,9 @@
     <t xml:space="preserve">Property was just a you would expect from Choice Privileges chain. Rooms were nice, both clean and roomy. Staff was friendly. Nocomment on breakfast due to early departure time. Convenient to DFW airport and the South Remote Parking lot. Shuttle is also availabe, but we found these to be a little sporatic on previous visits.Only drawback was the A/C unit. Unit was loud and had a short duty cycle, turning fan on &amp; off frequently. </t>
   </si>
   <si>
+    <t>charoline</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r326322333-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -854,6 +962,9 @@
     <t>stayed here to catch my early flight. location was quite good. there's a burger place and a 7-eleven next to the hotel.room is quite standard. bathroom is quite small, though.staff was very friendly and helpful. the airport shuttle starts at 5am and it is prompt and efficient  breakfast starts at 6am, so if you have to leave before then, prepare your own breakfast.</t>
   </si>
   <si>
+    <t>C. E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r320523877-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -872,6 +983,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>andyinflag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r318318252-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -887,6 +1001,9 @@
     <t xml:space="preserve">We stayed there Oct 6 for our flight out Oct 7. Was very clean and nice. Staff was very helpful with out stay. Just south of car rental return, so make it nice to take car back with out going on HWY and through airport it self. Will have to drive if you want a nice place to eat, there is a Whataburger next door if you want fast food. </t>
   </si>
   <si>
+    <t>Mrsfrye1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r314647703-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1022,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>MFM19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r306805106-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1040,9 @@
     <t>The staff was very friendly and helpful upon arrival. Room was clean and well presented. AC worked GREAT!!! On the first floor with windows that open. I'm personally not a fan of that, but I could deal with it for a one night stay. Pool area was clean and not overly chlorinated, which I greatly appreciated. Wifi worked, but not consistently. Couldn't get it to work on my iPad and had to plug in the ethernet to get my computer to connect without dropping off randomly. If I walked closure to the lobby, the wifi worked better.  Would stay again.</t>
   </si>
   <si>
+    <t>Sarracenia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r306334304-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -935,6 +1058,9 @@
     <t>We booked this hotel based on reviews.  We were not disappointed.  Very clean rooms, comfortable beds and good size.  Refrigerator and microwave as well as coffee maker and hair dryer.  Free fast internet.  Airport shuttle came promptly when called.  Very courteous service at check in.  Breakfast had a reasonable selection of hot and cold items (biscuits, eggs, hard eggs, pancakes, fruit, cereal, yogurt).Very quiet in spite of being near the airport.  I would stay there again.</t>
   </si>
   <si>
+    <t>Lovely R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r305476574-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1079,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Sandy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r290065999-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1103,9 @@
     <t>Did not have a reservation but were needing to be close to the airport and car rental returns.  So we knew the area we needed to look around and saw the Comfort Suites and stopped since I had recently joined their Choice Hotels rewards program.  Arica at the front desk was very helpful and friendly. The hotel was very clean but could use a little cosmetic improvements. Beds were comfortable.  It was a little stuffy in the lobby/breakfast area but the a/c in the room was working great.  We arrived at noon and there were not any rooms available because they were being cleaned so we waited.   My husband had just been released from the hospital that morning after having bariatric surgery and Arica was very thoughtful and put us on the first floor.  We also spoke with the shuttle driver, AJ, about taking our rental car back that day so we could just take the shuttle directly to departures the next morning.  He was more than helpful, he actually showed us on his phone how to get there but then offered to have us follow him and we would go drop the car off and meet him at the shuttle pick up area.  So we took him up on that offer and were very glad we did.  We were there and back in 20 minutes.  It was such a big help and relief not to have to deal with...Did not have a reservation but were needing to be close to the airport and car rental returns.  So we knew the area we needed to look around and saw the Comfort Suites and stopped since I had recently joined their Choice Hotels rewards program.  Arica at the front desk was very helpful and friendly. The hotel was very clean but could use a little cosmetic improvements. Beds were comfortable.  It was a little stuffy in the lobby/breakfast area but the a/c in the room was working great.  We arrived at noon and there were not any rooms available because they were being cleaned so we waited.   My husband had just been released from the hospital that morning after having bariatric surgery and Arica was very thoughtful and put us on the first floor.  We also spoke with the shuttle driver, AJ, about taking our rental car back that day so we could just take the shuttle directly to departures the next morning.  He was more than helpful, he actually showed us on his phone how to get there but then offered to have us follow him and we would go drop the car off and meet him at the shuttle pick up area.  So we took him up on that offer and were very glad we did.  We were there and back in 20 minutes.  It was such a big help and relief not to have to deal with it the next morning.  We did not eat the breakfast as it wasn't available until 6:30 a.m. and we needed to be at the airport before then.  Plus my husband couldn't eat anything anyway.  Along with being close to the airport, there is a gas station right on the corne; just a couple minutes walk from the hotel if you don't have a car.  Also, there is a Whataburger restaurant (fast food hamburger joint) right by the hotel parking.  So glad we chose this hotel.  We would definitely use it again. Thanks Arica and AJ.More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r289842272-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -989,6 +1121,9 @@
     <t xml:space="preserve">We live 2 hours from DFW airport so staying here before an early flight is great. For the location we expected it to be much louder but it as quiet. Great air conditioning. Easy check out and check in process. Would definitely stay here again. We had an early flight so we decided to stay here before getting on our flight. </t>
   </si>
   <si>
+    <t>MooseMikeNY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r286914396-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1007,6 +1142,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>IsadoreG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r277614885-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1164,9 @@
   </si>
   <si>
     <t>Room and bedding was clean which is basically what is most important for a one night stay. Otherwise, the room had kind of a dark look with little lighting. Bathroom has a BIG door but is very small and hotel altogether is kind of dark and dingy. It is clean so really the decor and lighting could be improved.The airconditioning did not work properly and the unit kept going off, although the room was warm. Lowering the thermostat to the lowest level of 60 kept the room manageably comfortable (probably about 70-72) but it was barely 80 outside. I do not think it could have kept up with a really hot day.There was coffee in the room but no coffee maker. When we alerted one of the chambermaids on the floor, she simply handed us another from the room she was working in and did not seem surprised or utter a word. Maybe they are watching their budget and this is standard operating procedure I do not know.The hotel is convenient to the airport and suited our needs for the night.More</t>
+  </si>
+  <si>
+    <t>DianeG9999</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r274651148-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -1054,6 +1195,9 @@
 The shower situation in a handicap room has to be fixed....Airport Transportation - the van should be retired.  The seats were loose, torn and the carpet was dirty and torn as well.  They were able to drive us to a resturant within the 2 mile radius - driver very nice.The last day, the driver returned to the hotel and we were on the 8:30am shuttle to FSU.  He went into the hotel (to get coffee/breakfast I think).  The passengers had to open the van door and load their own luggage.  When we arrived at our destination, he didn't get out and open the door for us (or place the step stool).   The Front desk clerk was not friendly at all.  She only smiled when her manager was present.  It seemed like a tedious task for her to check us in.  She automatically 'welcomed' us and then 'rambled' off the standard verbiage. Didn't appear she wanted to be there.  Carpet behind the desk needs replacing.  Wiring was taped along the ceiling - safety concern.I had mistakenly booked a handicap room, wasn't able to change rooms as they were booked.  The light in the bathroom was sparking and making sounds.  Called FD but was told maintenance was gone for the day.  Only when I approached the FD the next morning did it get taken care of. Forgot toothpaste, but FD didn't have any - said it was on order.  The shower situation in a handicap room has to be fixed.  Water poured out on the floor regardless of the shower curtain, which makes it very unsafe.Room itself was clean and bed was comfortable.  I was lucky enough to have one of the 33 rooms that had cable TV.  Several of my co-workers who also stayed, didn't have TV.  Staff didn't know how to work it, they were told - just keep trying...Cable company didn't finish the install.  Managers reception on Wed - no lights on in the breakfast area.  No airconditioning.  The window unit didn't work.  It was very hot in there.  When I approached the FD, I was told "yeah it's hot in here".  Pizza good, box wine (hot). I will not stay here again.More</t>
   </si>
   <si>
+    <t>jomaha10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r274238710-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1213,9 @@
     <t>Airport hotel, without a working airport van. That's a major problem for an airport hotel.  I called the hotel several times while waiting for pickup at the DFW airport, the answer was "the van is on its way."  They actually didn't have a working courtesy van, but a "shared motel" van.  We waited in line outside of DFW with dozens of others going to various hotels. The wait was over an hour and a half.  Good luck getting back to the airport to catch a flight. This is not a well run airport hotel, quite the opposite.</t>
   </si>
   <si>
+    <t>Windman69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r267796802-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1234,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Brady N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r265686621-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1252,9 @@
     <t>My only gripe was a lack of nearby restaurants, there was nearby fast food, whataburger just down the road, and it was great the first 2 days.but after that I was craving something else. The hotel wasclean and quiet, the free breakfast was good. I wouldnt hesitate to stay here again.</t>
   </si>
   <si>
+    <t>lauranet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r263041443-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1273,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Tinahawk104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r256914666-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1291,9 @@
     <t xml:space="preserve">Stayed during winter storm . Front clerk was so friendly and did a great job of multitasking. I got a last minute cancellation! The room was much better than I expected. The hot breakfast was great and seemed to bring strangers together . The service was great also. </t>
   </si>
   <si>
+    <t>Kelly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r256666659-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1312,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Stan J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r254583776-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1333,9 @@
     <t>This hotel is near the car rental at the south end of DFW Airport. It is about 10 or 15 minute easy drive. They have a shuttle for the airport. You can make arrangements to park at the hotel, take the shuttle to airport. The front desk person was very professional. The rate he quoted was same as the Internet rate. No rip off or raising the price. Free WiFi . Snack and soda machines, guest laundry. Nice size room, refrigerator and microwave. Hot water and good water pressure.This place is not brand new but it is perfect for going to or from DFW. The price was reasonable and it included a hot all you can eat breakfast. This place is hard to beat.More</t>
   </si>
   <si>
+    <t>Bill L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r245081105-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1363,9 @@
     <t>Free Shuttle back and forth to the airport made it easy to catch the Dart orange line train downtown.  Saw Deally Plaza, Aquarium and Zoo using the trains. No need to rent a car. Hotel was clean and great staff.More</t>
   </si>
   <si>
+    <t>Dreman1961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r245032138-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1387,9 @@
     <t>I was in Dallas for a graduation near the airport, so the location was great.  Very accessible from the freeway.  Check-in was quick.  The hotel could use some serious updating.  My room was very large, but the furniture was dated. The bed was comfortable and the room was quiet for sleeping.  The free breakfast was the standard hot fix your own waffles and toast kind. There was ample parking.  There were several times during my 4 night stay that I went to the front desk and no one was there.  I had to wait. There are several restaurants in the area and a gas station right next door for fuel.More</t>
   </si>
   <si>
+    <t>loverainsky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r238203849-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1417,9 @@
     <t>We only stayed one night because it was near the airport, but it was comfortable, clean, and easily accessible and close to the airport.  All the usuals expected for a Comfort Inn.  We would stay there again.More</t>
   </si>
   <si>
+    <t>Dave D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r224262455-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1447,9 @@
     <t>This was one hotel that was definitely worth the money.  The hotel was very up-to-date and appealing.  Staff was helpful and kind.  The BEDS were the most comfortable that I have ever slept on.  They offered a light breakfast that included biscuits, sausage, and eggs as well as the typical waffles, cereal, and fruit.  A shuttle was offered for short trips around the area and back and forth from DFW.   The only complaint is that it is a little far from a variety of restaurants.  Within walking distance, you have the choice of Whataburger and two other hotel restaurants.More</t>
   </si>
   <si>
+    <t>newlifedoula</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r219336235-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1477,9 @@
     <t>We were planning on staying at this hotel for one night and I made the reservations through the phone. The day we actually travelled I called and tried to reserve for an extra night the day we would arrive and keep my existing reservation. The lady, Angie, kept me on hold for a while and finally said ok, see you tonight. We arrived that night and tried to get the room keys, when she said, no rooms are available for the night. We were so mad as we had talked to her 3 hours prior. Obviously she overbooked. We left with the words we didn't want the room for the next day. We finally found a different hotel, I called back to confirm the cancellation, since we walked off while we had said it. I only was able to reach an answering machine. I left a message and just now checked our bank statement. Of course they charged us for the night. Unbelievable and unprofessional! Do not stay there!!!!!More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r216719785-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1495,9 @@
     <t>I was afraid that I was going to cut my feet on the bathroom tiles because there was a  lot of broken tiles on the floor. The entire hotel is really outdated. The carpet has stains everywhere and so did the comforter. When I asked for another comforter I was told the hotel did not have anymore. I am not sure what the smell is, but it is bad. They also need an exterminator, the roaches are HUGE.</t>
   </si>
   <si>
+    <t>STARR08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r209695631-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1525,9 @@
     <t>The hotel staff was truly exceptional at this hotel. They went above and beyond any request we had. We dealt with about 5 different people on the staff and each and everyone of them were excellent and super sweet. The parking is not the best if you come in at late hours and the rooms we stayed in had a musty- dirty feet smell. So that wasn't pleasant to come into a stinky room. But that's the only thing really. The rooms are a little out of date but hey the pool is nice!! =)More</t>
   </si>
   <si>
+    <t>NovTraveler01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r206547361-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1555,9 @@
     <t>Check in was fast. Because of being a rewards member they were able to get all my information from my phone number and had everything ready when I arrived. My room was clean and comfortable as was the bed. The sink area was small but because I was by myself it was adequate. Front desk staff was very busy and it was hard to have questions answered without someone butting in. This appeared to be acquaintances of the clerk and not quests. I need to say the clerk was very friendly to everyone and tried to handle everything since she was by herself. I had a decent night sleep and left by shuttle before breakfast. The shuttle is where I had problems. I filled out the shuttle reservation sheet the night before. In the morning i got on the shuttle and the driver asked what terminal. Now I should have known this but I told him I wasn't sure but it was on the reservation sheet. That was my mistake, I should have checked. Yep he took my to the wrong terminal. Never being to DFW before I did not know my way around. Took me awhile to get to the correct terminal but I made my flight.More</t>
   </si>
   <si>
+    <t>QueenKai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r201600140-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1579,9 @@
     <t>This is the second time for me. The front desk staff is nice and the room is clean. The hotel is not expensive  and it's great for one or two nights. The airport shuttle starts at 5am, I didn't know that before I stayed here the 2nd time so I had to catch a cab for my early flight. It's was about $20. The shuttle will take you to the mall and the airport. I don't have any complaints the room was cheap and it served it's purpose. I would not stay for long periods of time but if you have a flight early it works. A word of caution the shuttle isn't reliable it will come but it may be late. More</t>
   </si>
   <si>
+    <t>terry c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r195024289-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1600,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Jacob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r195007291-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1613,9 @@
   </si>
   <si>
     <t>We just took a trip to Hawaii for 8 days and used Comfort Inn as our parking location.  It was a great value and very convenient getting us to and from the airport.  Mark was our driver and he was a great beginning and end to our trip.  We was very happy and positive the whole time, which you don't get all the time.  Thanks Mark!  Hope to get you as a drive again!</t>
+  </si>
+  <si>
+    <t>Angela W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r191614166-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -1443,6 +1641,9 @@
 Anyway back to the Inn, the biggest let down was the breakfast. There was a choice of 2 cereals, bread (toaster provided) jams, fruit (bruised bananas, oranges), waffle maker (mixture available to make yourself), yoghurt and cakes. Not exactly the best selection of food to start the day. I did notice a few hard boiled eggs at the bottom of the fridge on the last day but not sure how long they had been there so gave them a miss....My sister and I spent 3 nights in the Comfort Inn and I think it's fair to say that the room was spacious and the bed was comfortable. Staff were very polite, friendly and approachable and greeted us with a smile each day. There was a free shuttle to the local shopping mall and as long as you arranged a pick up time, the driver returned to bring you back to the Inn. Don't expect punctuality as he was about an hour late but at least he did arrive...eventually! The shuttle bus makes regular (free) trips to and from the airport where we were able to take another bus (small charge) to the local Grapevine Mall. This bus made several stops on a round trip so your able to jump on and off to visit different places. The airport information desk provides you with a timetable of the bus route etc so made it really easy to plan the day.Anyway back to the Inn, the biggest let down was the breakfast. There was a choice of 2 cereals, bread (toaster provided) jams, fruit (bruised bananas, oranges), waffle maker (mixture available to make yourself), yoghurt and cakes. Not exactly the best selection of food to start the day. I did notice a few hard boiled eggs at the bottom of the fridge on the last day but not sure how long they had been there so gave them a miss. Coffee was on tap and fruit juice and iced water also available. All in all I would say it was ok if your passing through and only need to spend a night there but otherwise I would give it a miss.More</t>
   </si>
   <si>
+    <t>Reiselust888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r186386679-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1659,9 @@
     <t>We stayed there for 2 nights in Nov 2013.  We found the hotel room reasonably clean and the beds were comfortable.  The girls at the front desk were friendly and helpful (especially Angie!!) which I appreciated very much.  Breakfast was nothing fancy but adequate.  We found the room rate was very competitive and we would definitely return should we be in DFW again!</t>
   </si>
   <si>
+    <t>melanie39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r186126749-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1680,9 @@
     <t>I stayed there on November 25th, 2013. Stayed there isn't quite right since I was only there about 3 hours. AA put some of us there because of a problem with a flight. We arrived at 11:30 p.m.. The guy at the desk said a courtesy van would drive us to the Denny's a few miles down the road since it's the only restaurant that accepts AA food vouchers. When the driver dropped us off, he told the 6 of us that when we finished eating we were to call the hotel and they would come back to get us. So, at 12:10 we called. The night clerk who came on at 12:10 said the shuttle bus service ended at midnight and hung up on us. Neither the night clerk on duty when we arrived nor the driver had told us that. We called back and the clerk said he didn't know anything about us being taken to Denny's and hung up on us again. We called Yellow Cab and they said they wouldn't come out for a 3 mile trip. It was 30 degrees outside. We didn't know what to do. We almost called 911. One of the Comfort Inn guests walked next door to LaQuinta to see if their shuttle bus driver could drive us back to Comfort Inn. Because of insurance purposes, he couldn't, but he did call a taxi driver with a different cab company who...I stayed there on November 25th, 2013. Stayed there isn't quite right since I was only there about 3 hours. AA put some of us there because of a problem with a flight. We arrived at 11:30 p.m.. The guy at the desk said a courtesy van would drive us to the Denny's a few miles down the road since it's the only restaurant that accepts AA food vouchers. When the driver dropped us off, he told the 6 of us that when we finished eating we were to call the hotel and they would come back to get us. So, at 12:10 we called. The night clerk who came on at 12:10 said the shuttle bus service ended at midnight and hung up on us. Neither the night clerk on duty when we arrived nor the driver had told us that. We called back and the clerk said he didn't know anything about us being taken to Denny's and hung up on us again. We called Yellow Cab and they said they wouldn't come out for a 3 mile trip. It was 30 degrees outside. We didn't know what to do. We almost called 911. One of the Comfort Inn guests walked next door to LaQuinta to see if their shuttle bus driver could drive us back to Comfort Inn. Because of insurance purposes, he couldn't, but he did call a taxi driver with a different cab company who came to get us. When we returned to the hotel, which by this time was almost 2:30 a.m., the desk clerk refused to pay the cab fare. He called the manager and said some guests had arrived and wanted him to pay for the cab. Of course the manager said no. The desk clerk didn't explain the situation. We all were so angry and disgusted with the staff at Comfort Inn for the way we had been treated. Because of being stranded, we only got 2 and a half hours sleep before we had to get up and leave.More</t>
   </si>
   <si>
+    <t>travelingmv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r186115925-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1695,9 @@
     <t>With an early morning flight, this was the best deal around for a hotel near DFW Airport.  With the proprietor and his desk staff's help, we had a great pizza delivered to the room and were able to turn in our rental car the night before our flight to save time.  The owner was driving the shuttle himself the evening we arrived, so I learned about him, his family, and how they came to be in the hotel business.  Friendly, courteous, and prompt... and at a great price.  What a deal!  Will stay here again when needed to be near DFW.</t>
   </si>
   <si>
+    <t>Prairecwby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r180439239-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1716,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Divebabydive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r179820730-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1521,6 +1734,9 @@
     <t>Located amoung other nicer hotel properties, typical airport hotel with shuttle service and such.  Everything was clean, but mostly things were small.    Pillows were extrememly small.  5 on the bed, but could have passed off as kids pillows  Toilet was big, but seemed to be lower than normal.  Breakfast room was small, along with amount of breakfast items available.  Shower and sink area were small as well.  No desk in the rooms  Service was fast and friendly.  We got an extra blanket from them and we used the pool.</t>
   </si>
   <si>
+    <t>Wildanimal18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r179335961-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1752,9 @@
     <t xml:space="preserve">Clean rooms nice beds service was very fast shower was awesome the shower head was tall great for tall guys will stay again thank you will be back price was fair not bad on the breakfast ran out of coffee close to dfw  </t>
   </si>
   <si>
+    <t>LafernJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r169552545-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1776,9 @@
     <t>I was stunned at the condition of the room &amp; the unprofessionalism of some staff members.  Upon arrival, the room smelled terrible, like a retirement home. There was a used hand towel in the bathroom. I had to make a run to the store to get Febreeze. The staff member mentioned it was just the humidity...no it was a stench I have never experienced in a hotel ever! This was my first time at a Comfort Inn. We stayed 4 days/3 nights, are linens/towels were never refreshed nor trash changed. The last draw was me taking old towels to desk to get a new set. I return to my room &amp; realize there are no wash clothes included. I go back to the desk, he tells me, sorry we have none, check in the morning! Unacceptable! No help or apology. Very sad representatives working. The outside is nice &amp; well kept, however the inside is terribly different.More</t>
   </si>
   <si>
+    <t>kccjenkins04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r169515595-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1794,9 @@
     <t>I stayed here for the weekend with my husband, daughter in law and 2 grandbabies while we visited hurricane harbor and six flags.. I got this hotel for free using my points on Choice hotels, this is by far the best comfort inn I have stayed at very clean, we had a suite and they made sure we had a crib for the baby, it has a microwave and fridge the room over looked the pool it was awesome. I normally stay at the Hilton or Double Tree and wanted to give this a try and I am so glad I did. Its close to all major things, restaurants, shopping, only 7 miles from six flags and hurricane harbor. Breakfast was great (one suggestion is they need more than one waffle maker) hot breakfast was biscuits gravy, eggs, fresh fruit, coffee cake, sausage bacon hot and cold cereal milk coffee etc. The pool was really nice and they have a jacuzzi as wellMore</t>
   </si>
   <si>
+    <t>PATSYandSTAN A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r165495316-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1818,9 @@
     <t>I am not kidding! The vanity is outside the bathroom and in a small niche. It's about 28" wide. Don't expect to stand at the vanity and try to comb your hair. And forget about makeup. The lighting is very poor and even dim. The door to the shower/pot opens out. Fully opened and it blocks the vanity. DUMB!  The room was smelly and small. There were no racks for our suitcases and no place for them. The bed was fair and the shower was good. Breakfast was double blah! We stayed here because they have a parking plan with Global. The trip to the airport was good. The returning trip 8 days later was a disaster. We waited 50 minutes at the proper place after calling the hotel and speaking with Karen. We complained to the driver and he told us he got there within 10 minutes of receiving the call from dispatch (Karen). Finally at the hotel &amp; Karen apologized but really blamed the driver. This is customer service at it's worse!!! Blame Game and no attempt to make it better. Very disgusting! I'm just a regular old blue collar guy but this is way below my standards of efficiency. Go to the North side maybe they will have better!!More</t>
   </si>
   <si>
+    <t>flyerNewYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r158757132-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1842,9 @@
     <t>First I want to praise the staff, all of them are excellent at making this inn what it is! They are like genies, if you need or want something they make it happen IF possible, they do have some restrictions. As for the inn it does need some work on the cosmetics. Landscaping is missing around the pool, grout missing from bathroom floor and the shade has what looks like a water stain on it and it has a tear in it. I'm sure if I told the staff about this it would be fixed. The light fixtures in the breakfast area ($10ea) don't go with the fixtures in the other areas, and dusting needs to be done on the ledge in the lobby because from the 2nd floor the sight isn't pleasant. One more thing lighting in the my room needs improving, to dark. I'm sure all the rooms are the same.Transportation service supplied by the inn is excellent. In closing I would liken to thank the staff again. You all do a great job!More</t>
   </si>
   <si>
+    <t>Paul C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r155933041-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1632,6 +1863,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>godsbooboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r155766848-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1882,9 @@
   </si>
   <si>
     <t>My husband and I were visiting family and grandchildren in the Dallas area.  Originally we were booked to stay at an Extended Stay Deluxe near our son.  After a couple of nights there we were totally disgusted and changed to this hotel in Irving.  Wow, what a difference.  The staff here were pleasant, friendly, accommodating.  The hotel was clean and quiet.  Our room was also clean and the bed was incredibly comfortable.  The rate for the king bed suite was fair.  When we had to fly out of DFW Airport we had only a five minute drive there from this hotel. It was a refreshing experience staying at this hotel after a very unpleasant stay at the previous hotel.  The management here knows what they are doing.  We will very likely stay here in the future when visiting our son and grandchildren.More</t>
+  </si>
+  <si>
+    <t>mark359</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r151211835-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -1683,6 +1920,9 @@
 Getting back to the airport, I booked a transfer at 5.30, someone else did the same, we got the transfer at 6.10pm after complaining at the driver turned up. I was sitting there from 5.15 until then. They told me he had come i n to check. Seeing...Stayed here due to all the other hotels being full, as there was a large conference on, and I booked 2 days before. Firstly I have to say that "Kent" on the front desk was very good, he help a great deal, from the moment I arrived, from telling where to go to dinner, (nothing in house!!!!!) to organising transport.I didn't have a car, so options are very, very limited!!!You can go to the burger place next door, or to the Embassy Suites across the road for something to eat. I pick the Embassy Suite. I will stay there next time.My room was at the end of the hall, sort of facing the pool but backing onto the back car park, so didn't feel so safe as I was on the ground floor. Breakfast was, well how do I describe it? "on the go" You don't spend much time there.Rooms clean but dark, comfortable, towels in the bathroom where too small, more like hand towels.Airconditioner right next to the bed so you are either very cold or very hot, I stayed 2 nights so I had both.Getting back to the airport, I booked a transfer at 5.30, someone else did the same, we got the transfer at 6.10pm after complaining at the driver turned up. I was sitting there from 5.15 until then. They told me he had come i n to check. Seeing I was by the door, with someone else waiting, that was rubbish.The planes going over at 2am didn't help with sleepingWill not be there againMore</t>
   </si>
   <si>
+    <t>wfrieze88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r150583309-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1698,6 +1938,9 @@
     <t>This is one my favorite hotels in the DFW area. The staff is awesome, the location is near perfect, and the Whataburger  fast food franchise just outside the door is perfect if you need a late breakfast in a hurry. I love this Hotel and believe you will to!</t>
   </si>
   <si>
+    <t>MattL41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r149659002-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +1956,9 @@
     <t>Rooms are clean and roomy, but mirror at sink is tiny. We had signed up for the shuttle at 6 am, and were running late, so they didn't wait. Would have had to wait an hour for the next one, so we took a cab. Everything else was fine b</t>
   </si>
   <si>
+    <t>scubadude77354</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r145513567-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1731,6 +1977,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Kelly H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r144778516-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1746,6 +1995,9 @@
     <t>The room was satisfactory and the location was convenient.  Good for business travel.  Rooms could be a little fresher, my arrival was late and the room seemed a little stuffy.  However, I would stay here again.</t>
   </si>
   <si>
+    <t>me_lil_psycho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r144002551-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +2016,9 @@
     <t>My husband and I were visiting Dallas for a concert and stayed here at this wonderful hotel. It doesn't look like much from the outside, but never judge a book by its cover. The room we stayed in was approximately $130 a night and wow...was it worth it! It had everything in there and the bed...oh that bed....it was like sleeping on a cloud. So comfortable and warm. Too wonderful for words. Lots of towels in the room and the staff was extremely sweet regardless of the hour. My husband and I are not fancy in the least and we dress like bums and they didn't let off a hint of judgment when we walked in! Everything was wonderful over all EXCEPT the eggs...lol Breakfast was a delight but those eggs are bleh. It was really impressive to see all the foods (hot and cold) available to eat for breakfast, not just a muffin like most places. They have everything from cereal, to waffles, sausage and fruit and of course lots of coffee!This place is great in every way and I encourage anyone to go by and see for yourself. You will not regret it! :)More</t>
   </si>
   <si>
+    <t>L L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r141611782-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1783,6 +2038,9 @@
   </si>
   <si>
     <t>This is the hotel that we always stay at when we fly out of DFW.  It is so clean and comfortable, it's a hands down decision!  The bed is always comfortable, bathroom very clean and the breakfast is one of the best!  Staff are very friendly and helpful.  They were laying a new laminate floor when we came this time.  The only negative was the shuttle picking us up from the airport.  We took the hotel stay on the returning side of the trip since our plane landed at 11 p.m. and we didn't want a long drive home at that time of night.  We called 3 times for the shuttle and at midnight it came!  Other than that, it was a very good experience and we would probably stay there again.More</t>
+  </si>
+  <si>
+    <t>HCS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r140445863-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -1827,6 +2085,9 @@
 - Grumpy shuttle...Stayed here w/ my husband after we were stranded at DFW by American Airlines en route from Cancun to Washington DC.  The airline gave us a voucher to stay here and after looking at the reviews on Tripadvisor on the way to the hotel, I was hopeful it wouldn't be a dive.  It wasn't a dive but I am surprised by the high reviews.  I felt the place was not suitable for anything more than a one-night crash.- Pros:  - comfortable bed w/ soft, clean linens- very clean room- relatively quiet- microwave and minifridge in room- free airport shuttle- free newspaper- upon checkin, front desk employee displayed an adequate sense of urgency while inprocessing a small crowd of fellow DFW refugees all stranded by the same American Airlines debacle... got us in to our room quickly with a minimum of further aggrivation- Cons:- garish decor throughout the hotel... bizarre, tacky knicknacks, mismatched furniture, random crystal chandeliers... did not create a soothing atmosphere- bad breakfast ... okay, I get it, it's free... but I have had way better free breakfasts at the Fairfield Inn, Holiday Inn Express, and other similar budget hotels.    Nothing fresh in sight; offerings consisted of donuts, industrial bread, cold cereal, obligatory waffle maker, and industrial sausage patty/biscuit/egg patty combo.  Probably for the first time in my life did I skip a free hotel breakfast!- Grumpy shuttle driver... as my husband and I perused the breakfast offerings, he was in the corner of the breakfast area loudly complaining to another employee about how hard he had worked the night before picking up American Airlines refugees and "didn't get one tip..."  Well, that's a bummer, but speaking for myself, I had no cash and didn't plan to need to tip anyone that night as I thought I would be at home in my own bed after being picked up by friends at my destination airport.  I really didn't need to hear him abusing the guests who were already in a bad situation.Overall, I was grateful to stay here instead of the airport floor, as I have done before in a similar scenario.  However, if I were paying for a room near the airport, this would not be my first choice.  I am giving this hotel "3 dots" as it was not excellent, not bad, but average and acceptable.More</t>
   </si>
   <si>
+    <t>Mehlo220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r140270609-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1845,6 +2106,9 @@
     <t>I came to the Comfort Inn 9/11/2012 -9/14/2012, the check-in process was a breeze, fast an efficient, i asked my restaurants and bars, the AGM gave a huge amt of recommendations and favored restaurants. The rooms were fantastic, everything clean from the bedding to towels, not even a spick of dirt/garbage on the floors. There was never a problem with the WiFi (some places tend to fluxuate, this hotels stayed strong). The shuttle service to and from the airport was quick and on point, AGM got me the shuttle service throughout the day/night, after midnight they stopped the shuttle service and she called cabs for me, which were quick. Maid service was great, they greet everytime they encounter as well as the maintenance man, overall experience at this property has been fantastic, i recommend anyone and everyone to stay here!!!More</t>
   </si>
   <si>
+    <t>Guineaman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r139352526-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1860,6 +2124,9 @@
     <t>I stayed there for two nights over Labor Day weekend.  It was great.Very clean, everything in room worked fine, and most especially, the people there are really nice and very accommodating.  Clearly, they genuinely care about their guests.Good breakfast and nice pool area.I wouldn’t hesitate to stay there again or recommend it.</t>
   </si>
   <si>
+    <t>jlmgwm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r137583456-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1881,6 +2148,9 @@
     <t>When we arrived at 9:00 p.m., a bus had just unloaded  with 60-plus guests  to check in.  While I waited for 45 minutes  (6th from the end) to register,  the ***one*** young lady at the desk was processing guests as quickly, politely, and efficiently as she could.  A man who appeared to be a manager watched  the process without offering assistance.   It was not until after it was my turn to register, a second lady appeared to assist.  Too little; too late.  On my way to breakfast the next morning, I stopped by the desk to ask housekeeping to leave an extra set of towels since we had registered 3 adults in the room for a 2-night stay.  When we returned to our room in the evening, there were no extra towels.  When I called, the desk clerk,  said he would have someone bring them to the room.  No towels arrived.  On my way to breakfast the next morning, I stopped at the desk to state that we had never received a third set of towels.  "We ran out of towels," he said.       Our handicap room for 3 adults had a king bed, sofa bed, refrigerator, coffee pot, microwave, and a walk-in shower.  The hot breakfast included eggs, sausage, waffles, pastries, yogurt, cereal, coffee, juice, and bananas.More</t>
   </si>
   <si>
+    <t>electronicsguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r136526688-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1902,6 +2172,9 @@
     <t>I checked in late to the Comfort Inn. The Hotel has won some awards from what it seems. It does seem to be an older property from the lobby. Once I go to my room it has an odd smell but it was late so I did not ask to move. I had been in my room for a few mins. and the desk called me to ask how my room was. I like the fact that they would ask but it was after 11pm when they called. The room needs to be updated. It did seem to be clean with a little extra dusting needed here and there. Overall not a bad stay but not my best.More</t>
   </si>
   <si>
+    <t>SueSteveW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r135261117-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1920,6 +2193,9 @@
     <t>This trip we stayed in 7 different locations.  This was our favorite!  For low budget hotel, beds very comfortable, internet (in room) for multiple computers very fast, continental breakfast had most to offer (eggs, waffles, sausage, cereal, donuts, muffins, yogurt, fruit, biscuits/southern gravy etc.)  Staff superb, Texas charm and hospitality.  Quick to meet any needs we had.  Free parking/rental car, so we didn't utilize airport shuttle.  Whataburger fast food close by.  Shopping down the road in Irving Mall, close to highway.  Close to airport, but didn't hear airport noise.  Pool small but clean and nice.  Gym small, but fully functional and met our needs.  You can also purchase discounted tickets to Six Flags and Hurricane Harbour (water park).  We'd stay at this one again and again, couldn't say that about our other locations!  Well done ... Comfort Inn!More</t>
   </si>
   <si>
+    <t>Dwayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r134734866-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1935,6 +2211,9 @@
     <t>The hotel and staff were great. They were very quick to take care of our needs. The shuttle picked us up at the airport and even took us to do a little shopping later on that day. However, upon checkout, the taxi that they called for us overcharged us. The hotel had assured us that it would cost only $25.00 for a ride from the hotel to the airport. However, when the driver dropped us off, he asked for $40.00 instead. It wasn't even a fifteen minute ride! Next time I'll get a direct quote from the cab company before being taken advantage of.,</t>
   </si>
   <si>
+    <t>hank_123_123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r134217953-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1950,6 +2229,9 @@
     <t xml:space="preserve">I was stuck at dfw due to weather delays &amp; a missed connection. Clean linens. Some of the friendliest staff ever. If you are distressed or have an overnight layover, stay here. </t>
   </si>
   <si>
+    <t>Chemandy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r132203607-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2250,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>travelerhc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r131766509-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1983,6 +2268,9 @@
     <t>Had doubts at first because when your out side you can here the planes flying over head. However once your inside you really can't. The service was awesome and anything I needed or wanted was felt with promptly. The rate was pretty good but not greatest. But I guess because of location it's fair pricing. Quick drive to airport or six flags and easy access from highway. Overall great stay!</t>
   </si>
   <si>
+    <t>Luvtotravel051</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r131707709-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -1999,6 +2287,9 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>Traveller2984</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r129698751-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -2021,6 +2312,9 @@
 The room also smelled a bit funky and even though the room had circulating tub, when I pushed the button, a foul smell shot out with left-over water, indicating it had not been sterilized in a bit. I  put water in the tub and circulated that, and little bits of what looked like algae came out. The eggs at breakfast looked like the reconstituted scrambled kind - they were gritty and tasteless. Also, a high school group staying there had totally taken over the breakfast area because the separate meeting room that was supposed to hold breakfast just for them was not set up (the group leader was not a happy camper, and...We planned to overnight here before flying out in the morning. From the time that we called until the shuttle showed up was 50 minutes - that's a long time to be standing in the Texas heat, especially after traveling. I called the hotel several times, and they really did not provide any useable information about expected shuttle time. (A shuttle for the DFW North Comfort Inn  went by three times while we were waiting.) Then, after we left the airport, we went away from the hotel to one of the businesses in the region and picked up another couple of people, so our trip to the hotel took 25 minutes - and the hotel is less than 10 minutes away from the terminal we were in.The room also smelled a bit funky and even though the room had circulating tub, when I pushed the button, a foul smell shot out with left-over water, indicating it had not been sterilized in a bit. I  put water in the tub and circulated that, and little bits of what looked like algae came out. The eggs at breakfast looked like the reconstituted scrambled kind - they were gritty and tasteless. Also, a high school group staying there had totally taken over the breakfast area because the separate meeting room that was supposed to hold breakfast just for them was not set up (the group leader was not a happy camper, and the staff kept trying to make excuses.)But, they do have a manager's reception from 5 to 7 on weeknights, so a little free wine and light beer can go a ways to smooth out the tensions.More</t>
   </si>
   <si>
+    <t>omer_sch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r129086511-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2333,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>MoabPJL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r128880279-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2057,6 +2354,9 @@
     <t>Used this hotel as an overnight stop on flight from London to Grand Junction, Co.  Phoned the hotel from baggage claim and courtesy van arrived in 10 minutes.  Van driver even took the luggage to our room for us.  Room was large and clean; Lots of hot water for showering and plenty of bed pillows.  Only minor inconvience was smoke alarm battery was low and the microwave didn't work.  The front desk fixed the smake alarm within 5 minutes and I used the coffee pot to make make hot tea water.  There is a What-a-burger next door.  Two hotels next door (Hilton Garden and Ebassy suites) both have restaurants.  We ate at Embassy and had very good salads.  Took their 5am courtesy van back to airport.  For an overrnight stop it was an excellent choice.More</t>
   </si>
   <si>
+    <t>Richard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r127130525-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2375,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Sasha2345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r126962533-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2102,6 +2405,9 @@
     <t>My family and I visited the DFW area for spring break. The check in was a breeze and the Gen. Manager of the hotel was very nice and knowledgeable.  She helped me plan some of our outings for the week. Gave plenty of good tips on where to take our two children and yummy  inexpensive resturants to enjoy. When we returned from our outings our room was always cleaned and toiletries replenished. We felt safe and secure in the this hotel. The hotel also provided free wi-fi. Rates here can't be beat. Great quality for not a lot of money. Well ran staff. Over all our trip was a success and we do plan on returning to the DFW area and staying at this hotel.More</t>
   </si>
   <si>
+    <t>Jay M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r126907961-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2120,6 +2426,9 @@
     <t>I have stayed at many hotels in this area of Irving over the past 6 months and when I found this Comfort Inn, I was delighted by the ambiance and the secure feeling it gave compared to the other places where the room door opens onto the parking lot. The staff has always been friendly, especially Richard, the night desk manager and the compact, contemporary layout is reminiscient of European motels. The rates are great and the rooms are comfortable and thankfully have flat panel TVs that don't have ghost images like their competitors properties do! My only request is that they improve their breakfast selection by adding better bagels and muffins and using real eggs rather than powdered.More</t>
   </si>
   <si>
+    <t>G N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r122603649-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2147,6 +2456,9 @@
     <t>We were traveling on military orders, and though the staff were extremely helpful initially and we appreciated the free airport shuttle and breakfast, we were shocked to find an additional $32 dollar charge on our bill. We called and tried to resolve the issue and were told it was because housekeeping found 2 less pillows than what should've been there. I told them there is no way we took any pillows. The charge was not removed and we are left to contest the charge with our credit card company- the receptionist said that is the only thing we can do.More</t>
   </si>
   <si>
+    <t>shehangsbrightly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r121804602-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2162,6 +2474,9 @@
     <t>We missed our connecting flight in Dallas so American airlines put us up at this hotel. Extremely nice check in clerk, lovely room, comfortable bed, good breakfast, free shuttle. Don't know what the rates are since it was free, but it was way beyond my expectations. Also: if you get in late and you're hungry, there's a 24 hour Whataburger next door. There's also a Shell mini mart in case you need something if your baggage was locked away at the airport like ours. :)</t>
   </si>
   <si>
+    <t>NowataOKDenise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r121782811-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2177,6 +2492,9 @@
     <t>If you are flying out of DFW this is the place to stay!  We parked our car for $5 per day and they took us to the airport at 5 a.m. and dropped us off right at the baggage check-in.  On our return trip we called to be picked up and they were there within 10 minutes.  The rooms were clean and comfortable, they included mini-fridge and microwave.  The van will even take you up to 2 miles for a bit of shopping or a bite to eat.  Very impressive for the $81 per night(internet reservation).</t>
   </si>
   <si>
+    <t>TrotamundosBetis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r120333073-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2198,6 +2516,9 @@
     <t>We we're surprised at how hard it was find a reasonably priced motel in the Dallas area that did not have terrible reviews.  Well, this is the place....reasonable rate and excellent facilities.  The breakfast buffet was above-average for a motel, the rooms and grounds very clean, and staff friendly.  Although the motel is labelled as "DFW," we used it for an early flight out of Love Field and it was only a 20 minute drive to DAL.  The only thing to be aware of is that many of the highways near the hotel are of recent construction/renovation such that older GPS systems (like ours) will not be able to successfully guide you to the motel.  If you have an older GPS, I'd advise calling the motel to get the correct exit number depending on your route of approach.More</t>
   </si>
   <si>
+    <t>Delicio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r119816448-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2213,6 +2534,9 @@
     <t>I really liked this hotel. Originally had 1 night and was to move to another hotel closer to work site, ended up staying here the other nights. Front desk employees were very nice and helpful. Clean rooms, free breakfast  and all $30 less than other place. Drawback limited good restaurants but hotel will take youvto better options in their van.</t>
   </si>
   <si>
+    <t>Mick122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r119601729-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2234,6 +2558,9 @@
     <t>The Comfort Inn is in an odd location, but I found it to be great value stop-over.I had a couple of days to kill before starting a business conference in nearby Grapevine and found this inexpensive hotel that was within walking distance (25 mins) of West Irving station so I could play the tourist in Dallas.Everything went according to plan, with the staff being professional and helpful. The room was a good size for me and the bed was large and soft. There were plenty of fast food restaurants nearby but best of all a sports bar (Aspen Creek) that had a good atmosphere and a terric steak for only $10. The only thing I could ask for was a little extra soundproofing between rooms, as I could hear the tv next door too well. Thankfully it wasn't on too late.More</t>
   </si>
   <si>
+    <t>mikelima</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r115065331-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2252,6 +2579,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>CaribbeanDon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r114653876-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2267,6 +2597,9 @@
     <t>Excellent budget hotel. Clean and comfortable. The rooms seem freshly updated with 32" LCD TVs. Typically breakfast in the AM. Value is super.</t>
   </si>
   <si>
+    <t>somaliagucci</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r114623445-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2285,6 +2618,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>duffbeerdude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r112184093-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2303,6 +2639,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>MAP-Minn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r89844054-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2330,6 +2669,9 @@
     <t>We were not aware that Comfort Inn had one shuttle for a North hotel and another for a South hotel. We took the 1st shuttle that arrived at DFW. Unfortunately, it was for the North hotel &amp; our reservation at the South hotel. Rooms were avail at North, but South would NOT release us from our reservation nor pick us up! Both Comfort Inn. A call to corporate was NO HELP. Very lame. We had to take North shuttle back to the airport &amp; wait for South shuttle, then transport to South. Timely delay to weary travelers. "Happens all the time," we were told by BOTH hotels. If I'd wanted to stay at an INDEPENDENT hotel, I'd NOT made reservation at Comfort Inn. Found it GREEDY. Simple solution: Drivers need to ask "Is your reservation at NORTH or SOUTH?"More</t>
   </si>
   <si>
+    <t>dizzy2277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r86772996-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2348,6 +2690,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>jimkip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r82450135-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2366,6 +2711,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>artravler_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r81402093-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2381,6 +2729,9 @@
     <t>I'm always greated as a valued customer when I check in.  The rooms have always been clean and ready even when I show up a couple of hours early.</t>
   </si>
   <si>
+    <t>lbishaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r77729635-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2408,6 +2759,9 @@
     <t>The service received at this hotel was excellent with knowledgeable and friendly staff. Our room, king bed, was well appointed and very comfortable.  Eatery's were either in walking distance or easy driving distance.  The best thing about this hotel was the close location to the activities we were in the area for.More</t>
   </si>
   <si>
+    <t>bananas4keith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r67314837-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2435,6 +2789,9 @@
     <t>I thought I could trust the reviews, but our service at this hotel was TERRIBLE!! From the moment we checked in, things went horribly wrong. Our check-in time was 3:00 p.m., but when we arrived at 4:00, our room was not ready. After waiting for it to be cleaned for 15 minutes, we went in to find it was NOT the type of room that we booked...BACK to the front desk for another room. Called for linens for the pull-out at 4:45 p.m. and had to call back at 12:30 a.m. when we got back to the room. At that point, the gentlemen who brought them to us was HORRIBLY RUDE. We demanded an apology from the manager which NEVER happened...AVOID THIS PLACE LIKE THE PLAGUE!!More</t>
   </si>
   <si>
+    <t>Kat858P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r62397135-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2462,6 +2819,9 @@
     <t>We were "sent" to this hotel by our airline after our flight was cancelled and wound up staying for four nights. We had a 'passenger' rate which we felt was fair for the service we received. The hotel has a free shuttle to and from DFW airport. They are also willing to shuttle you to nearby restaurants, Irving Mall and Walmart. Without a car, the only facilities you have access to are a gas station and a fast food restaurant in the parking lot. If you plan to stay here for more than one night, you need a car!The hotel was spotlessly clean and the rooms were very comfortable. They had a fridge and a microwave which was a nice bonus. The rooms also had a safe and free WiFi which was fast. There is a small swimming pool which is surprisingly quiet given this hotel is on a highway. The only noise we heard at night was the planes from DFW which is to be expected. The air conditioning was too noisy to run at night. All the staff were incredibly friendly and made our stay a pleasure. Our only criticism is that the rooms were a little dark, and that there are no real facilities in the immediate area.More</t>
   </si>
   <si>
+    <t>rm1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r57298922-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2477,6 +2837,9 @@
     <t>Lucy was an incredible attendant; she provided excellent service that will always be remembered.. She took great care of my sisters and I and went above and beyond her duties. She deserves absolute recognition for her dedication and passion for her job.</t>
   </si>
   <si>
+    <t>radiolistener</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r51352771-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2495,6 +2858,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>BSpeaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r46697390-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2516,6 +2882,9 @@
     <t>Pros:Location -Convenient location off of Highway 183Near lots of dining (within 5 miles) &amp; secure locationHotel - Clean &amp; modern appearanceAmazing staff - very helpful and courteousShuttle personnel voluntarily helped me take my bags to the room (thanks Joe!)Completely non-smokingRooms-Spacious rooms w/ very cold fridge &amp; microwave32-inch flat screen TV w/ all the major cable channelsVery clean - immaculate!Courtesy popcornExcellent mattress and very soft pillowsCan barely (if ever) hear airport noiseBreakfast-Hot breakfast (waffles, eggs, biscuits, etc.)Cold items (muffins, bread, bagels, etc.)Juice was fresh (apple &amp; orange)Cons:If I had to say one it would be that there is a pool but it was outside.  That was a disappointment to my 2 daughters in 50 degree temps, but hey, it was well worth staying inside.  This place is great!Conclusion:I will DEFINITELY stay here the next time we are in the Ft. Worth/Dallas area.  The staff always greeted me and wished me a "good day" and were always kind.  God bless!More</t>
   </si>
   <si>
+    <t>jcrossSanFrancisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r25320407-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
   </si>
   <si>
@@ -2535,6 +2904,9 @@
   </si>
   <si>
     <t>Where do I start?  This place covers all the bases and does each well.  It's newly remodeled so all is fresh and clean.  The front desk is very friendly and welcoming.  They have a full hot breakfast buffet included in the price, free Internet in the rooms via wireless and Lan line, a free computer termial in the lobby with free printing, a nice pool, wonderful beds, a nice hot strong shower, soft towels and so on.  Seriously, this place exceeded my expectations by delivering the service and amenities generally associated with a property with more stars at a much higher price.  Oh, did I mention the new flat screen TV, micrwave, fridge?  Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>lokin74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d142351-r13420612-Quality_Inn_Suites_DFW_Airport_South-Irving_Texas.html</t>
@@ -3054,43 +3426,47 @@
       <c r="A2" t="n">
         <v>33677</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3110,50 +3486,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33677</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>56681</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3171,56 +3551,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33677</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173841</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -3238,56 +3622,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33677</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>173842</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3301,50 +3689,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33677</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3364,50 +3756,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33677</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173844</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3421,50 +3817,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33677</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>115681</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3484,50 +3884,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33677</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>123187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3545,50 +3949,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33677</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>21443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3602,50 +4010,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33677</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173845</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3663,50 +4075,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33677</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>93198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3720,50 +4136,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33677</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>27954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3779,56 +4199,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33677</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173846</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3846,50 +4270,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33677</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173847</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3909,50 +4337,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33677</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173848</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3970,50 +4402,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33677</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>173849</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4029,56 +4465,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33677</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124848</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4096,50 +4536,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33677</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4153,50 +4597,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33677</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173851</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4214,50 +4662,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33677</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>16886</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4277,50 +4729,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33677</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3577</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4334,50 +4790,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33677</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173852</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4391,50 +4851,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33677</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>60169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4452,50 +4916,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33677</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>173853</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4513,50 +4981,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33677</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173854</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4570,50 +5042,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33677</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>38728</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4627,50 +5103,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33677</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4688,50 +5168,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33677</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173855</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4749,50 +5233,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33677</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173856</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4812,50 +5300,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33677</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>173857</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4873,56 +5365,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="X31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33677</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173858</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4940,56 +5436,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33677</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>2434</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5007,50 +5507,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33677</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>16823</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5064,56 +5568,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="X34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33677</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>18777</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5127,50 +5635,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33677</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>4168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5184,50 +5696,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33677</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>129888</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5247,50 +5763,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33677</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>173859</v>
+      </c>
+      <c r="C38" t="s">
+        <v>314</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5308,50 +5828,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33677</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>173860</v>
+      </c>
+      <c r="C39" t="s">
+        <v>321</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="J39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5365,50 +5889,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33677</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>173861</v>
+      </c>
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5422,50 +5950,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33677</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>173862</v>
+      </c>
+      <c r="C41" t="s">
+        <v>334</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5485,50 +6017,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33677</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>173863</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5548,50 +6084,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33677</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173864</v>
+      </c>
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5605,50 +6145,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33677</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>13914</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5668,50 +6212,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33677</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C45" t="s">
+        <v>361</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5725,50 +6273,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33677</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>173865</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5786,50 +6338,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33677</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>173866</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5849,50 +6405,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33677</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>173867</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5916,50 +6476,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33677</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>173868</v>
+      </c>
+      <c r="C49" t="s">
+        <v>389</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="O49" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5975,50 +6539,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33677</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>173869</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6032,50 +6600,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33677</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>173870</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6089,50 +6661,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33677</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>173871</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6146,41 +6722,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33677</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>173872</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -6209,50 +6789,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33677</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="O54" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6266,50 +6850,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33677</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173873</v>
+      </c>
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6329,50 +6917,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33677</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>17613</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6388,56 +6980,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="X56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="Y56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33677</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>173874</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6453,56 +7049,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="X57" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="Y57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33677</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>173875</v>
+      </c>
+      <c r="C58" t="s">
+        <v>453</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="J58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="K58" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="O58" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6518,56 +7118,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="X58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="Y58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33677</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>4238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>463</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="J59" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="K59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6585,56 +7189,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="X59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="Y59" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33677</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>173876</v>
+      </c>
+      <c r="C60" t="s">
+        <v>473</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="J60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="K60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6648,56 +7256,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="X60" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="Y60" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33677</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>507</v>
+      </c>
+      <c r="C61" t="s">
+        <v>483</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="J61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="O61" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6715,50 +7327,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33677</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>173877</v>
+      </c>
+      <c r="C62" t="s">
+        <v>489</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="J62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="K62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="L62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="O62" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6770,56 +7386,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="X62" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="Y62" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33677</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>173878</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="K63" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6841,56 +7461,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="X63" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33677</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>173879</v>
+      </c>
+      <c r="C64" t="s">
+        <v>509</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="J64" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="K64" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="L64" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6904,50 +7528,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33677</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>173880</v>
+      </c>
+      <c r="C65" t="s">
+        <v>517</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="K65" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="L65" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6971,50 +7599,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33677</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>2359</v>
+      </c>
+      <c r="C66" t="s">
+        <v>524</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="J66" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="K66" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="O66" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7036,50 +7668,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33677</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>529</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="J67" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="K67" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="O67" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7103,50 +7739,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33677</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>173881</v>
+      </c>
+      <c r="C68" t="s">
+        <v>537</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="J68" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="K68" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="L68" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7170,50 +7810,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33677</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>173882</v>
+      </c>
+      <c r="C69" t="s">
+        <v>543</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="J69" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="K69" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="L69" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="O69" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -7237,50 +7881,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33677</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C70" t="s">
+        <v>550</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="J70" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="K70" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="L70" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="O70" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7304,50 +7952,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33677</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>173884</v>
+      </c>
+      <c r="C71" t="s">
+        <v>555</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="J71" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="K71" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="L71" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7361,50 +8013,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33677</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>65450</v>
+      </c>
+      <c r="C72" t="s">
+        <v>562</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="J72" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="K72" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="L72" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="O72" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7428,41 +8084,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33677</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>173885</v>
+      </c>
+      <c r="C73" t="s">
+        <v>568</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="J73" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="K73" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="L73" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7491,50 +8151,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33677</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>173886</v>
+      </c>
+      <c r="C74" t="s">
+        <v>574</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="J74" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="K74" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="L74" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="O74" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7558,50 +8222,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33677</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>173887</v>
+      </c>
+      <c r="C75" t="s">
+        <v>582</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="J75" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="K75" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="L75" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="O75" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7625,50 +8293,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33677</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>173888</v>
+      </c>
+      <c r="C76" t="s">
+        <v>588</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="J76" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="K76" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="L76" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="O76" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7692,50 +8364,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33677</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>173889</v>
+      </c>
+      <c r="C77" t="s">
+        <v>596</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="J77" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="K77" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="L77" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7759,50 +8435,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33677</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>42097</v>
+      </c>
+      <c r="C78" t="s">
+        <v>604</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="J78" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="K78" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
       <c r="L78" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="O78" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7816,50 +8496,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33677</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146860</v>
+      </c>
+      <c r="C79" t="s">
+        <v>611</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="J79" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="K79" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="L79" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="O79" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7883,50 +8567,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33677</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>135321</v>
+      </c>
+      <c r="C80" t="s">
+        <v>618</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="J80" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="K80" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="L80" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -7950,50 +8638,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33677</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>173890</v>
+      </c>
+      <c r="C81" t="s">
+        <v>626</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="J81" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="K81" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="L81" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8017,41 +8709,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33677</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>173891</v>
+      </c>
+      <c r="C82" t="s">
+        <v>632</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="J82" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="K82" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="L82" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
@@ -8080,50 +8776,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33677</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>173892</v>
+      </c>
+      <c r="C83" t="s">
+        <v>638</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>558</v>
+        <v>640</v>
       </c>
       <c r="J83" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="K83" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="L83" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8147,50 +8847,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33677</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>938</v>
+      </c>
+      <c r="C84" t="s">
+        <v>645</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="J84" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="K84" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="L84" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8214,41 +8918,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33677</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>173893</v>
+      </c>
+      <c r="C85" t="s">
+        <v>651</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="J85" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="K85" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="L85" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8277,50 +8985,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33677</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>173894</v>
+      </c>
+      <c r="C86" t="s">
+        <v>658</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="J86" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="K86" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="L86" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="O86" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8344,50 +9056,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33677</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>173895</v>
+      </c>
+      <c r="C87" t="s">
+        <v>666</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>581</v>
+        <v>667</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="J87" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="K87" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="L87" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="O87" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="n">
@@ -8409,41 +9125,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>586</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33677</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>173896</v>
+      </c>
+      <c r="C88" t="s">
+        <v>673</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="J88" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="K88" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
       <c r="L88" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8472,50 +9192,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33677</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>173897</v>
+      </c>
+      <c r="C89" t="s">
+        <v>680</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="J89" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="K89" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="L89" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8539,50 +9263,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33677</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>173898</v>
+      </c>
+      <c r="C90" t="s">
+        <v>686</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="J90" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="K90" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="L90" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O90" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8606,50 +9334,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33677</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>173899</v>
+      </c>
+      <c r="C91" t="s">
+        <v>694</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="J91" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="K91" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="L91" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8673,50 +9405,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33677</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>173900</v>
+      </c>
+      <c r="C92" t="s">
+        <v>702</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="J92" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="K92" t="s">
-        <v>615</v>
+        <v>706</v>
       </c>
       <c r="L92" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O92" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8740,50 +9476,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>617</v>
+        <v>708</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33677</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>73888</v>
+      </c>
+      <c r="C93" t="s">
+        <v>709</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>618</v>
+        <v>710</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="J93" t="s">
-        <v>620</v>
+        <v>712</v>
       </c>
       <c r="K93" t="s">
-        <v>621</v>
+        <v>713</v>
       </c>
       <c r="L93" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O93" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8807,41 +9547,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33677</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>173901</v>
+      </c>
+      <c r="C94" t="s">
+        <v>715</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>623</v>
+        <v>716</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="J94" t="s">
-        <v>625</v>
+        <v>718</v>
       </c>
       <c r="K94" t="s">
-        <v>626</v>
+        <v>719</v>
       </c>
       <c r="L94" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8870,50 +9614,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33677</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>173902</v>
+      </c>
+      <c r="C95" t="s">
+        <v>721</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="J95" t="s">
-        <v>630</v>
+        <v>724</v>
       </c>
       <c r="K95" t="s">
-        <v>631</v>
+        <v>725</v>
       </c>
       <c r="L95" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>633</v>
+        <v>727</v>
       </c>
       <c r="O95" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8937,41 +9685,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33677</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>173903</v>
+      </c>
+      <c r="C96" t="s">
+        <v>728</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="J96" t="s">
-        <v>636</v>
+        <v>731</v>
       </c>
       <c r="K96" t="s">
-        <v>637</v>
+        <v>732</v>
       </c>
       <c r="L96" t="s">
-        <v>638</v>
+        <v>733</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -9000,50 +9752,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>638</v>
+        <v>733</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33677</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>173904</v>
+      </c>
+      <c r="C97" t="s">
+        <v>734</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>639</v>
+        <v>735</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>640</v>
+        <v>736</v>
       </c>
       <c r="J97" t="s">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="K97" t="s">
-        <v>642</v>
+        <v>738</v>
       </c>
       <c r="L97" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="O97" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9067,50 +9823,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33677</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>173905</v>
+      </c>
+      <c r="C98" t="s">
+        <v>741</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
       <c r="J98" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="K98" t="s">
-        <v>648</v>
+        <v>745</v>
       </c>
       <c r="L98" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9134,50 +9894,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>650</v>
+        <v>747</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33677</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>173906</v>
+      </c>
+      <c r="C99" t="s">
+        <v>748</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>651</v>
+        <v>749</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="J99" t="s">
-        <v>653</v>
+        <v>751</v>
       </c>
       <c r="K99" t="s">
-        <v>654</v>
+        <v>752</v>
       </c>
       <c r="L99" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9201,50 +9965,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33677</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>173907</v>
+      </c>
+      <c r="C100" t="s">
+        <v>755</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="J100" t="s">
-        <v>659</v>
+        <v>758</v>
       </c>
       <c r="K100" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="L100" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="O100" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9268,50 +10036,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33677</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>83</v>
+      </c>
+      <c r="C101" t="s">
+        <v>762</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>663</v>
+        <v>763</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>664</v>
+        <v>764</v>
       </c>
       <c r="J101" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
       <c r="K101" t="s">
-        <v>666</v>
+        <v>766</v>
       </c>
       <c r="L101" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>668</v>
+        <v>768</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9335,50 +10107,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33677</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>173908</v>
+      </c>
+      <c r="C102" t="s">
+        <v>769</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>669</v>
+        <v>770</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="J102" t="s">
-        <v>671</v>
+        <v>772</v>
       </c>
       <c r="K102" t="s">
-        <v>672</v>
+        <v>773</v>
       </c>
       <c r="L102" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="O102" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9400,56 +10176,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>675</v>
+        <v>776</v>
       </c>
       <c r="X102" t="s">
-        <v>676</v>
+        <v>777</v>
       </c>
       <c r="Y102" t="s">
-        <v>677</v>
+        <v>778</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33677</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>12428</v>
+      </c>
+      <c r="C103" t="s">
+        <v>779</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="J103" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
       <c r="K103" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
       <c r="L103" t="s">
-        <v>682</v>
+        <v>784</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9473,50 +10253,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33677</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>16293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>786</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>685</v>
+        <v>788</v>
       </c>
       <c r="J104" t="s">
-        <v>686</v>
+        <v>789</v>
       </c>
       <c r="K104" t="s">
-        <v>687</v>
+        <v>790</v>
       </c>
       <c r="L104" t="s">
-        <v>688</v>
+        <v>791</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>689</v>
+        <v>792</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9528,47 +10312,51 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>690</v>
+        <v>793</v>
       </c>
       <c r="X104" t="s">
-        <v>691</v>
+        <v>794</v>
       </c>
       <c r="Y104" t="s">
-        <v>692</v>
+        <v>795</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33677</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>173909</v>
+      </c>
+      <c r="C105" t="s">
+        <v>796</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>694</v>
+        <v>798</v>
       </c>
       <c r="J105" t="s">
-        <v>695</v>
+        <v>799</v>
       </c>
       <c r="K105" t="s">
-        <v>696</v>
+        <v>800</v>
       </c>
       <c r="L105" t="s">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9597,50 +10385,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>697</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33677</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C106" t="s">
+        <v>802</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="J106" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="K106" t="s">
-        <v>701</v>
+        <v>806</v>
       </c>
       <c r="L106" t="s">
-        <v>702</v>
+        <v>807</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>689</v>
+        <v>792</v>
       </c>
       <c r="O106" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9664,50 +10456,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>702</v>
+        <v>807</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33677</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>173911</v>
+      </c>
+      <c r="C107" t="s">
+        <v>808</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>704</v>
+        <v>810</v>
       </c>
       <c r="J107" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="K107" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
       <c r="L107" t="s">
-        <v>707</v>
+        <v>813</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>708</v>
+        <v>814</v>
       </c>
       <c r="O107" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9731,41 +10527,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33677</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>173912</v>
+      </c>
+      <c r="C108" t="s">
+        <v>816</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>710</v>
+        <v>817</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>711</v>
+        <v>818</v>
       </c>
       <c r="J108" t="s">
-        <v>712</v>
+        <v>819</v>
       </c>
       <c r="K108" t="s">
-        <v>713</v>
+        <v>820</v>
       </c>
       <c r="L108" t="s">
-        <v>714</v>
+        <v>821</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
@@ -9794,50 +10594,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>714</v>
+        <v>821</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>33677</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>173913</v>
+      </c>
+      <c r="C109" t="s">
+        <v>822</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>715</v>
+        <v>823</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="J109" t="s">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="K109" t="s">
-        <v>718</v>
+        <v>826</v>
       </c>
       <c r="L109" t="s">
-        <v>719</v>
+        <v>827</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>720</v>
+        <v>828</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9861,50 +10665,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>721</v>
+        <v>829</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>33677</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>173914</v>
+      </c>
+      <c r="C110" t="s">
+        <v>830</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>722</v>
+        <v>831</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>723</v>
+        <v>832</v>
       </c>
       <c r="J110" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
       <c r="K110" t="s">
-        <v>725</v>
+        <v>834</v>
       </c>
       <c r="L110" t="s">
-        <v>726</v>
+        <v>835</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>727</v>
+        <v>836</v>
       </c>
       <c r="O110" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9924,50 +10732,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>726</v>
+        <v>835</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>33677</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>173915</v>
+      </c>
+      <c r="C111" t="s">
+        <v>837</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>729</v>
+        <v>839</v>
       </c>
       <c r="J111" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
       <c r="K111" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="L111" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>727</v>
+        <v>836</v>
       </c>
       <c r="O111" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9987,50 +10799,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>33677</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>173916</v>
+      </c>
+      <c r="C112" t="s">
+        <v>843</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="J112" t="s">
-        <v>735</v>
+        <v>846</v>
       </c>
       <c r="K112" t="s">
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="L112" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>738</v>
+        <v>849</v>
       </c>
       <c r="O112" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10050,50 +10866,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>33677</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>173917</v>
+      </c>
+      <c r="C113" t="s">
+        <v>850</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>740</v>
+        <v>852</v>
       </c>
       <c r="J113" t="s">
-        <v>741</v>
+        <v>853</v>
       </c>
       <c r="K113" t="s">
-        <v>742</v>
+        <v>854</v>
       </c>
       <c r="L113" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>744</v>
+        <v>856</v>
       </c>
       <c r="O113" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10117,50 +10937,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>33677</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>173918</v>
+      </c>
+      <c r="C114" t="s">
+        <v>857</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
       <c r="J114" t="s">
-        <v>747</v>
+        <v>860</v>
       </c>
       <c r="K114" t="s">
-        <v>748</v>
+        <v>861</v>
       </c>
       <c r="L114" t="s">
-        <v>749</v>
+        <v>862</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>750</v>
+        <v>863</v>
       </c>
       <c r="O114" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -10172,56 +10996,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>751</v>
+        <v>864</v>
       </c>
       <c r="X114" t="s">
-        <v>752</v>
+        <v>865</v>
       </c>
       <c r="Y114" t="s">
-        <v>753</v>
+        <v>866</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>33677</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>173919</v>
+      </c>
+      <c r="C115" t="s">
+        <v>867</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>754</v>
+        <v>868</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>755</v>
+        <v>869</v>
       </c>
       <c r="J115" t="s">
-        <v>756</v>
+        <v>870</v>
       </c>
       <c r="K115" t="s">
-        <v>757</v>
+        <v>871</v>
       </c>
       <c r="L115" t="s">
-        <v>758</v>
+        <v>872</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10241,50 +11069,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>758</v>
+        <v>872</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>33677</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>173920</v>
+      </c>
+      <c r="C116" t="s">
+        <v>874</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>761</v>
+        <v>876</v>
       </c>
       <c r="J116" t="s">
-        <v>762</v>
+        <v>877</v>
       </c>
       <c r="K116" t="s">
-        <v>763</v>
+        <v>878</v>
       </c>
       <c r="L116" t="s">
-        <v>764</v>
+        <v>879</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>765</v>
+        <v>880</v>
       </c>
       <c r="O116" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10308,50 +11140,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>764</v>
+        <v>879</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>33677</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>173921</v>
+      </c>
+      <c r="C117" t="s">
+        <v>881</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>766</v>
+        <v>882</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>767</v>
+        <v>883</v>
       </c>
       <c r="J117" t="s">
-        <v>768</v>
+        <v>884</v>
       </c>
       <c r="K117" t="s">
-        <v>769</v>
+        <v>885</v>
       </c>
       <c r="L117" t="s">
-        <v>770</v>
+        <v>886</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>765</v>
+        <v>880</v>
       </c>
       <c r="O117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10375,50 +11211,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>770</v>
+        <v>886</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>33677</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>173922</v>
+      </c>
+      <c r="C118" t="s">
+        <v>887</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>771</v>
+        <v>888</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>772</v>
+        <v>889</v>
       </c>
       <c r="J118" t="s">
-        <v>773</v>
+        <v>890</v>
       </c>
       <c r="K118" t="s">
-        <v>774</v>
+        <v>891</v>
       </c>
       <c r="L118" t="s">
-        <v>775</v>
+        <v>892</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>776</v>
+        <v>893</v>
       </c>
       <c r="O118" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10440,56 +11280,60 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>777</v>
+        <v>894</v>
       </c>
       <c r="X118" t="s">
-        <v>778</v>
+        <v>895</v>
       </c>
       <c r="Y118" t="s">
-        <v>779</v>
+        <v>896</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>33677</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>173923</v>
+      </c>
+      <c r="C119" t="s">
+        <v>897</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>780</v>
+        <v>898</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>781</v>
+        <v>899</v>
       </c>
       <c r="J119" t="s">
-        <v>782</v>
+        <v>900</v>
       </c>
       <c r="K119" t="s">
-        <v>783</v>
+        <v>901</v>
       </c>
       <c r="L119" t="s">
-        <v>784</v>
+        <v>902</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>785</v>
+        <v>903</v>
       </c>
       <c r="O119" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P119" t="n">
         <v>2</v>
@@ -10511,56 +11355,60 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>786</v>
+        <v>904</v>
       </c>
       <c r="X119" t="s">
-        <v>787</v>
+        <v>905</v>
       </c>
       <c r="Y119" t="s">
-        <v>788</v>
+        <v>906</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>33677</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>173924</v>
+      </c>
+      <c r="C120" t="s">
+        <v>907</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>789</v>
+        <v>908</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>790</v>
+        <v>909</v>
       </c>
       <c r="J120" t="s">
-        <v>791</v>
+        <v>910</v>
       </c>
       <c r="K120" t="s">
-        <v>792</v>
+        <v>911</v>
       </c>
       <c r="L120" t="s">
-        <v>793</v>
+        <v>912</v>
       </c>
       <c r="M120" t="n">
         <v>4</v>
       </c>
       <c r="N120" t="s">
-        <v>794</v>
+        <v>913</v>
       </c>
       <c r="O120" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P120" t="n">
         <v>4</v>
@@ -10582,47 +11430,51 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>795</v>
+        <v>914</v>
       </c>
       <c r="X120" t="s">
-        <v>796</v>
+        <v>915</v>
       </c>
       <c r="Y120" t="s">
-        <v>797</v>
+        <v>916</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>33677</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>173925</v>
+      </c>
+      <c r="C121" t="s">
+        <v>917</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>798</v>
+        <v>918</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>799</v>
+        <v>919</v>
       </c>
       <c r="J121" t="s">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="K121" t="s">
-        <v>801</v>
+        <v>921</v>
       </c>
       <c r="L121" t="s">
-        <v>802</v>
+        <v>922</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -10651,50 +11503,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>802</v>
+        <v>922</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>33677</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>173926</v>
+      </c>
+      <c r="C122" t="s">
+        <v>923</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>803</v>
+        <v>924</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>804</v>
+        <v>925</v>
       </c>
       <c r="J122" t="s">
-        <v>805</v>
+        <v>926</v>
       </c>
       <c r="K122" t="s">
-        <v>806</v>
+        <v>927</v>
       </c>
       <c r="L122" t="s">
-        <v>807</v>
+        <v>928</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
       </c>
       <c r="N122" t="s">
-        <v>808</v>
+        <v>929</v>
       </c>
       <c r="O122" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P122" t="n">
         <v>5</v>
@@ -10718,50 +11574,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>807</v>
+        <v>928</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>33677</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>102401</v>
+      </c>
+      <c r="C123" t="s">
+        <v>930</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>809</v>
+        <v>931</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>810</v>
+        <v>932</v>
       </c>
       <c r="J123" t="s">
-        <v>811</v>
+        <v>933</v>
       </c>
       <c r="K123" t="s">
-        <v>812</v>
+        <v>934</v>
       </c>
       <c r="L123" t="s">
-        <v>813</v>
+        <v>935</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
       </c>
       <c r="N123" t="s">
-        <v>814</v>
+        <v>936</v>
       </c>
       <c r="O123" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -10785,50 +11645,54 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>815</v>
+        <v>937</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>33677</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>173927</v>
+      </c>
+      <c r="C124" t="s">
+        <v>938</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>816</v>
+        <v>939</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>817</v>
+        <v>940</v>
       </c>
       <c r="J124" t="s">
-        <v>818</v>
+        <v>941</v>
       </c>
       <c r="K124" t="s">
-        <v>819</v>
+        <v>942</v>
       </c>
       <c r="L124" t="s">
-        <v>820</v>
+        <v>943</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
       </c>
       <c r="N124" t="s">
-        <v>821</v>
+        <v>944</v>
       </c>
       <c r="O124" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10852,50 +11716,54 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>822</v>
+        <v>945</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>33677</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>173928</v>
+      </c>
+      <c r="C125" t="s">
+        <v>946</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>823</v>
+        <v>947</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>824</v>
+        <v>948</v>
       </c>
       <c r="J125" t="s">
-        <v>825</v>
+        <v>949</v>
       </c>
       <c r="K125" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="L125" t="s">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="M125" t="n">
         <v>5</v>
       </c>
       <c r="N125" t="s">
-        <v>827</v>
+        <v>951</v>
       </c>
       <c r="O125" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P125" t="n">
         <v>5</v>
@@ -10919,7 +11787,7 @@
       <c r="W125" t="s"/>
       <c r="X125" t="s"/>
       <c r="Y125" t="s">
-        <v>826</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
